--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H2">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I2">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J2">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N2">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O2">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P2">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q2">
-        <v>0.05702786590899999</v>
+        <v>0.2563114216065</v>
       </c>
       <c r="R2">
-        <v>0.228111463636</v>
+        <v>1.025245686426</v>
       </c>
       <c r="S2">
-        <v>1.613587181912367E-06</v>
+        <v>5.460886719538524E-06</v>
       </c>
       <c r="T2">
-        <v>7.31149379552598E-07</v>
+        <v>2.511460399279401E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H3">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I3">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J3">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q3">
-        <v>0.02325917550166667</v>
+        <v>0.131098669715</v>
       </c>
       <c r="R3">
-        <v>0.13955505301</v>
+        <v>0.78659201829</v>
       </c>
       <c r="S3">
-        <v>6.581117292943708E-07</v>
+        <v>2.793145072929733E-06</v>
       </c>
       <c r="T3">
-        <v>4.473058424828257E-07</v>
+        <v>1.926850052118879E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H4">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I4">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J4">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N4">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O4">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P4">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q4">
-        <v>93.51238678651367</v>
+        <v>1248.498700508176</v>
       </c>
       <c r="R4">
-        <v>561.074320719082</v>
+        <v>7490.992203049057</v>
       </c>
       <c r="S4">
-        <v>0.00264590628219417</v>
+        <v>0.02660010205644813</v>
       </c>
       <c r="T4">
-        <v>0.001798371440600896</v>
+        <v>0.0183500701523082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H5">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I5">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J5">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N5">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O5">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P5">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q5">
-        <v>0.019284583097</v>
+        <v>0.394237084722</v>
       </c>
       <c r="R5">
-        <v>0.07713833238800001</v>
+        <v>1.576948338888</v>
       </c>
       <c r="S5">
-        <v>5.456517721265847E-07</v>
+        <v>8.399485465041631E-06</v>
       </c>
       <c r="T5">
-        <v>2.472459865287867E-07</v>
+        <v>3.862921207337849E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H6">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I6">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J6">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N6">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O6">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P6">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q6">
-        <v>0.222107662478</v>
+        <v>102.618729127733</v>
       </c>
       <c r="R6">
-        <v>1.332645974868</v>
+        <v>615.7123747663981</v>
       </c>
       <c r="S6">
-        <v>6.284472888235134E-06</v>
+        <v>0.002186360840095106</v>
       </c>
       <c r="T6">
-        <v>4.271434947446603E-06</v>
+        <v>0.001508260182944645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H7">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I7">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J7">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N7">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O7">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P7">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q7">
-        <v>122.0806464231713</v>
+        <v>196.759260618492</v>
       </c>
       <c r="R7">
-        <v>732.483878539028</v>
+        <v>1180.555563710952</v>
       </c>
       <c r="S7">
-        <v>0.00345423703110933</v>
+        <v>0.004192087994062665</v>
       </c>
       <c r="T7">
-        <v>0.002347778251866738</v>
+        <v>0.002891910287128068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>304.012146</v>
       </c>
       <c r="I8">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J8">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N8">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O8">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P8">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q8">
-        <v>8.410901368617999</v>
+        <v>6.706862621597</v>
       </c>
       <c r="R8">
-        <v>50.465408211708</v>
+        <v>40.241175729582</v>
       </c>
       <c r="S8">
-        <v>0.000237984052539994</v>
+        <v>0.0001428942057692507</v>
       </c>
       <c r="T8">
-        <v>0.0001617531680114816</v>
+        <v>9.857551278035363E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>304.012146</v>
       </c>
       <c r="I9">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J9">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.101555</v>
       </c>
       <c r="O9">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P9">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q9">
         <v>3.430439276336667</v>
@@ -1013,10 +1013,10 @@
         <v>30.87395348703</v>
       </c>
       <c r="S9">
-        <v>9.706329978151984E-05</v>
+        <v>7.308780923188942E-05</v>
       </c>
       <c r="T9">
-        <v>9.895807767205643E-05</v>
+        <v>7.562939554729513E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>304.012146</v>
       </c>
       <c r="I10">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J10">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N10">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O10">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P10">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q10">
-        <v>13791.91469764076</v>
+        <v>32669.27870427123</v>
       </c>
       <c r="R10">
-        <v>124127.2322787669</v>
+        <v>294023.5083384411</v>
       </c>
       <c r="S10">
-        <v>0.3902382881669392</v>
+        <v>0.6960408907838278</v>
       </c>
       <c r="T10">
-        <v>0.3978561507589171</v>
+        <v>0.7202453103932078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>304.012146</v>
       </c>
       <c r="I11">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J11">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N11">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O11">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P11">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q11">
-        <v>2.844236300594</v>
+        <v>10.315942812836</v>
       </c>
       <c r="R11">
-        <v>17.065417803564</v>
+        <v>61.89565687701601</v>
       </c>
       <c r="S11">
-        <v>8.047685396980701E-05</v>
+        <v>0.0002197880794895735</v>
       </c>
       <c r="T11">
-        <v>5.469856464027586E-05</v>
+        <v>0.0001516207219324218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>304.012146</v>
       </c>
       <c r="I12">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J12">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N12">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O12">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P12">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q12">
-        <v>32.758119430556</v>
+        <v>2685.208931965621</v>
       </c>
       <c r="R12">
-        <v>294.823074875004</v>
+        <v>24166.88038769059</v>
       </c>
       <c r="S12">
-        <v>0.0009268816353928768</v>
+        <v>0.05721017699425619</v>
       </c>
       <c r="T12">
-        <v>0.000944975341601505</v>
+        <v>0.0591996278271469</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>304.012146</v>
       </c>
       <c r="I13">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J13">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N13">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O13">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P13">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q13">
-        <v>18005.37789229061</v>
+        <v>5148.570134815097</v>
       </c>
       <c r="R13">
-        <v>162048.4010306155</v>
+        <v>46337.13121333587</v>
       </c>
       <c r="S13">
-        <v>0.5094570261291037</v>
+        <v>0.1096937393488025</v>
       </c>
       <c r="T13">
-        <v>0.5194021641108205</v>
+        <v>0.1135082757228515</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H14">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I14">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J14">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N14">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O14">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P14">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q14">
-        <v>0.1247056101713333</v>
+        <v>0.1603179466375</v>
       </c>
       <c r="R14">
-        <v>0.7482336610279999</v>
+        <v>0.9619076798249999</v>
       </c>
       <c r="S14">
-        <v>3.528509630820103E-06</v>
+        <v>3.415681362184788E-06</v>
       </c>
       <c r="T14">
-        <v>2.398259904613815E-06</v>
+        <v>2.356306471344109E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H15">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I15">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J15">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.101555</v>
       </c>
       <c r="O15">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P15">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q15">
-        <v>0.05086197119222222</v>
+        <v>0.08199973845833335</v>
       </c>
       <c r="R15">
-        <v>0.45775774073</v>
+        <v>0.7379976461250001</v>
       </c>
       <c r="S15">
-        <v>1.43912495153731E-06</v>
+        <v>1.747059416806688E-06</v>
       </c>
       <c r="T15">
-        <v>1.46721818704476E-06</v>
+        <v>1.807812398085256E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H16">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I16">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J16">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N16">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O16">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P16">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q16">
-        <v>204.4880878305762</v>
+        <v>780.9123245094668</v>
       </c>
       <c r="R16">
-        <v>1840.392790475186</v>
+        <v>7028.210920585201</v>
       </c>
       <c r="S16">
-        <v>0.005785932054755616</v>
+        <v>0.01663786075278652</v>
       </c>
       <c r="T16">
-        <v>0.005898879545291942</v>
+        <v>0.01721643274244273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H17">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I17">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J17">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N17">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O17">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P17">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q17">
-        <v>0.04217053652066667</v>
+        <v>0.24658784035</v>
       </c>
       <c r="R17">
-        <v>0.253023219124</v>
+        <v>1.4795270421</v>
       </c>
       <c r="S17">
-        <v>1.193203289295387E-06</v>
+        <v>5.253719300243825E-06</v>
       </c>
       <c r="T17">
-        <v>8.109972498800704E-07</v>
+        <v>3.624276234558276E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H18">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I18">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J18">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N18">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O18">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P18">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q18">
-        <v>0.4856936364626666</v>
+        <v>64.18607425760835</v>
       </c>
       <c r="R18">
-        <v>4.371242728164</v>
+        <v>577.6746683184751</v>
       </c>
       <c r="S18">
-        <v>1.374256275665544E-05</v>
+        <v>0.001367527355182825</v>
       </c>
       <c r="T18">
-        <v>1.401083206265713E-05</v>
+        <v>0.001415082328418486</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.502495333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H19">
-        <v>4.507486</v>
+        <v>7.266975</v>
       </c>
       <c r="I19">
-        <v>0.01335938370367848</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J19">
-        <v>0.0136185683222204</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N19">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O19">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P19">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q19">
-        <v>266.9596917164271</v>
+        <v>123.0691962401</v>
       </c>
       <c r="R19">
-        <v>2402.637225447844</v>
+        <v>1107.6227661609</v>
       </c>
       <c r="S19">
-        <v>0.007553548248294557</v>
+        <v>0.002622071755989197</v>
       </c>
       <c r="T19">
-        <v>0.007701001469524266</v>
+        <v>0.002713252785535314</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H20">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I20">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J20">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N20">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O20">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P20">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q20">
-        <v>0.4759370157499999</v>
+        <v>0.5236984533874999</v>
       </c>
       <c r="R20">
-        <v>1.903748063</v>
+        <v>2.094793813549999</v>
       </c>
       <c r="S20">
-        <v>1.346650195953809E-05</v>
+        <v>1.115774674113913E-05</v>
       </c>
       <c r="T20">
-        <v>6.101947674615859E-06</v>
+        <v>5.1314448595498E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H21">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I21">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J21">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.101555</v>
       </c>
       <c r="O21">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P21">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q21">
-        <v>0.1941139195833333</v>
+        <v>0.2678623142916667</v>
       </c>
       <c r="R21">
-        <v>1.1646835175</v>
+        <v>1.60717388575</v>
       </c>
       <c r="S21">
-        <v>5.492397926484623E-06</v>
+        <v>5.706986234214392E-06</v>
       </c>
       <c r="T21">
-        <v>3.733076881020336E-06</v>
+        <v>3.936962254274706E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H22">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I22">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J22">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N22">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O22">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P22">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q22">
-        <v>780.4255970905832</v>
+        <v>2550.946947328133</v>
       </c>
       <c r="R22">
-        <v>4682.5535825435</v>
+        <v>15305.6816839688</v>
       </c>
       <c r="S22">
-        <v>0.02208191942358715</v>
+        <v>0.05434963537558668</v>
       </c>
       <c r="T22">
-        <v>0.01500865450612173</v>
+        <v>0.03749307501820755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H23">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I23">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J23">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N23">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O23">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P23">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q23">
-        <v>0.16094319475</v>
+        <v>0.80550975935</v>
       </c>
       <c r="R23">
-        <v>0.643772779</v>
+        <v>3.2220390374</v>
       </c>
       <c r="S23">
-        <v>4.553841739037287E-06</v>
+        <v>1.716192559708208E-05</v>
       </c>
       <c r="T23">
-        <v>2.063438901474034E-06</v>
+        <v>7.892765172776455E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H24">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I24">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J24">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N24">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O24">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P24">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q24">
-        <v>1.8536421865</v>
+        <v>209.6717711444417</v>
       </c>
       <c r="R24">
-        <v>11.121853119</v>
+        <v>1258.03062686665</v>
       </c>
       <c r="S24">
-        <v>5.244827637003295E-05</v>
+        <v>0.00446719768993613</v>
       </c>
       <c r="T24">
-        <v>3.564808132750346E-05</v>
+        <v>0.003081694604802689</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.734249999999999</v>
+        <v>7.912825</v>
       </c>
       <c r="H25">
-        <v>11.4685</v>
+        <v>15.82565</v>
       </c>
       <c r="I25">
-        <v>0.0509858794921282</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J25">
-        <v>0.03465003569692389</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N25">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O25">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P25">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q25">
-        <v>1018.847498733167</v>
+        <v>402.0207910741</v>
       </c>
       <c r="R25">
-        <v>6113.084992398999</v>
+        <v>2412.1247464446</v>
       </c>
       <c r="S25">
-        <v>0.02882799905054596</v>
+        <v>0.0085653225486197</v>
       </c>
       <c r="T25">
-        <v>0.01959383464601754</v>
+        <v>0.005908784459201655</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H26">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I26">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J26">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N26">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O26">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P26">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q26">
-        <v>0.09815804802533333</v>
+        <v>0.03339577493783333</v>
       </c>
       <c r="R26">
-        <v>0.588948288152</v>
+        <v>0.2003746496269999</v>
       </c>
       <c r="S26">
-        <v>2.777353940404426E-06</v>
+        <v>7.115193802275983E-07</v>
       </c>
       <c r="T26">
-        <v>1.887713877273732E-06</v>
+        <v>4.908413702397155E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H27">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I27">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J27">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.101555</v>
       </c>
       <c r="O27">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P27">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q27">
-        <v>0.04003438020222223</v>
+        <v>0.01708133660611111</v>
       </c>
       <c r="R27">
-        <v>0.36030942182</v>
+        <v>0.153732029455</v>
       </c>
       <c r="S27">
-        <v>1.13276135623229E-06</v>
+        <v>3.639293311223782E-07</v>
       </c>
       <c r="T27">
-        <v>1.154874051533958E-06</v>
+        <v>3.765847632317293E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H28">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I28">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J28">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N28">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O28">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P28">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q28">
-        <v>160.9562835088582</v>
+        <v>162.6715709780569</v>
       </c>
       <c r="R28">
-        <v>1448.606551579724</v>
+        <v>1464.044138802512</v>
       </c>
       <c r="S28">
-        <v>0.00455421208173176</v>
+        <v>0.003465826907098749</v>
       </c>
       <c r="T28">
-        <v>0.004643115100490688</v>
+        <v>0.003586349034266348</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H29">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I29">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J29">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.5</v>
       </c>
       <c r="M29">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N29">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O29">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P29">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q29">
-        <v>0.03319319430266667</v>
+        <v>0.05136662607933333</v>
       </c>
       <c r="R29">
-        <v>0.199159165816</v>
+        <v>0.308199756476</v>
       </c>
       <c r="S29">
-        <v>9.391919546660929E-07</v>
+        <v>1.094400415034096E-06</v>
       </c>
       <c r="T29">
-        <v>6.38350647519149E-07</v>
+        <v>7.549717045436183E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H30">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I30">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J30">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N30">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O30">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P30">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q30">
-        <v>0.3822982721306667</v>
+        <v>13.37057849734678</v>
       </c>
       <c r="R30">
-        <v>3.440684449176</v>
+        <v>120.335206476121</v>
       </c>
       <c r="S30">
-        <v>1.081702044683977E-05</v>
+        <v>0.0002848691411840569</v>
       </c>
       <c r="T30">
-        <v>1.10281800842134E-05</v>
+        <v>0.0002947753008914526</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.182641333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H31">
-        <v>3.547924</v>
+        <v>1.513781</v>
       </c>
       <c r="I31">
-        <v>0.01051541326306721</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J31">
-        <v>0.01071942217813777</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N31">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O31">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P31">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q31">
-        <v>210.1288162122551</v>
+        <v>25.63650087602267</v>
       </c>
       <c r="R31">
-        <v>1891.159345910296</v>
+        <v>230.728507884204</v>
       </c>
       <c r="S31">
-        <v>0.00594553485363731</v>
+        <v>0.000546202842978417</v>
       </c>
       <c r="T31">
-        <v>0.006061597958986541</v>
+        <v>0.000565196731093809</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.023554</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H32">
-        <v>6.070662</v>
+        <v>3.968758</v>
       </c>
       <c r="I32">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J32">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.08299899999999999</v>
+        <v>0.06618349999999999</v>
       </c>
       <c r="N32">
-        <v>0.165998</v>
+        <v>0.132367</v>
       </c>
       <c r="O32">
-        <v>0.0002641221862538864</v>
+        <v>0.0001655054671592544</v>
       </c>
       <c r="P32">
-        <v>0.0001761022045687984</v>
+        <v>0.0001103524301067477</v>
       </c>
       <c r="Q32">
-        <v>0.167952958446</v>
+        <v>0.08755543169766666</v>
       </c>
       <c r="R32">
-        <v>1.007717750676</v>
+        <v>0.525332590186</v>
       </c>
       <c r="S32">
-        <v>4.752181001217448E-06</v>
+        <v>1.865427186913644E-06</v>
       </c>
       <c r="T32">
-        <v>3.229965721260746E-06</v>
+        <v>1.286864225981059E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.023554</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H33">
-        <v>6.070662</v>
+        <v>3.968758</v>
       </c>
       <c r="I33">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J33">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.101555</v>
       </c>
       <c r="O33">
-        <v>0.0001077239027980797</v>
+        <v>8.465306165110682E-05</v>
       </c>
       <c r="P33">
-        <v>0.0001077365955311771</v>
+        <v>8.466491678054775E-05</v>
       </c>
       <c r="Q33">
-        <v>0.06850067549</v>
+        <v>0.04478302429888889</v>
       </c>
       <c r="R33">
-        <v>0.61650607941</v>
+        <v>0.40304721869</v>
       </c>
       <c r="S33">
-        <v>1.938207053011233E-06</v>
+        <v>9.541323641442109E-07</v>
       </c>
       <c r="T33">
-        <v>1.97604289703873E-06</v>
+        <v>9.873117655420645E-07</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.023554</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H34">
-        <v>6.070662</v>
+        <v>3.968758</v>
       </c>
       <c r="I34">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J34">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>136.0989836666667</v>
+        <v>322.3813173333334</v>
       </c>
       <c r="N34">
-        <v>408.296951</v>
+        <v>967.1439520000001</v>
       </c>
       <c r="O34">
-        <v>0.4330987254421377</v>
+        <v>0.8061808536669893</v>
       </c>
       <c r="P34">
-        <v>0.4331497559598229</v>
+        <v>0.8062937542306147</v>
       </c>
       <c r="Q34">
-        <v>275.403642794618</v>
+        <v>426.4844774057352</v>
       </c>
       <c r="R34">
-        <v>2478.632785151562</v>
+        <v>3838.360296651617</v>
       </c>
       <c r="S34">
-        <v>0.007792467432929761</v>
+        <v>0.009086537791241547</v>
       </c>
       <c r="T34">
-        <v>0.007944584608400574</v>
+        <v>0.009402516890182165</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.023554</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H35">
-        <v>6.070662</v>
+        <v>3.968758</v>
       </c>
       <c r="I35">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J35">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2607,28 +2607,28 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <v>0.028067</v>
+        <v>0.101798</v>
       </c>
       <c r="N35">
-        <v>0.056134</v>
+        <v>0.203596</v>
       </c>
       <c r="O35">
-        <v>8.93157435823062E-05</v>
+        <v>0.0002545668564805093</v>
       </c>
       <c r="P35">
-        <v>5.955084489731763E-05</v>
+        <v>0.0001697350046462744</v>
       </c>
       <c r="Q35">
-        <v>0.056795090118</v>
+        <v>0.1346705422946667</v>
       </c>
       <c r="R35">
-        <v>0.340770540708</v>
+        <v>0.808023253768</v>
       </c>
       <c r="S35">
-        <v>1.607000857373825E-06</v>
+        <v>2.869246213534116E-06</v>
       </c>
       <c r="T35">
-        <v>1.092247471639723E-06</v>
+        <v>1.979348394636425E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.023554</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H36">
-        <v>6.070662</v>
+        <v>3.968758</v>
       </c>
       <c r="I36">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J36">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.323258</v>
+        <v>26.49771366666667</v>
       </c>
       <c r="N36">
-        <v>0.9697739999999999</v>
+        <v>79.49314100000001</v>
       </c>
       <c r="O36">
-        <v>0.001028682389957214</v>
+        <v>0.06626298819273425</v>
       </c>
       <c r="P36">
-        <v>0.001028803596028277</v>
+        <v>0.06627226790792524</v>
       </c>
       <c r="Q36">
-        <v>0.654130018932</v>
+        <v>35.05433769876423</v>
       </c>
       <c r="R36">
-        <v>5.887170170387999</v>
+        <v>315.4890392888781</v>
       </c>
       <c r="S36">
-        <v>1.850842210257413E-05</v>
+        <v>0.0007468561720799478</v>
       </c>
       <c r="T36">
-        <v>1.886972600495138E-05</v>
+        <v>0.00077282766372108</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.023554</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H37">
-        <v>6.070662</v>
+        <v>3.968758</v>
       </c>
       <c r="I37">
-        <v>0.01799235826652378</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J37">
-        <v>0.01834142695243139</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>177.6775513333333</v>
+        <v>50.806228</v>
       </c>
       <c r="N37">
-        <v>533.032654</v>
+        <v>152.418684</v>
       </c>
       <c r="O37">
-        <v>0.5654114303352707</v>
+        <v>0.1270514327549857</v>
       </c>
       <c r="P37">
-        <v>0.5654780507991516</v>
+        <v>0.1270692255099267</v>
       </c>
       <c r="Q37">
-        <v>359.5401197107719</v>
+        <v>67.21254127494134</v>
       </c>
       <c r="R37">
-        <v>3235.861077396948</v>
+        <v>604.9128714744721</v>
       </c>
       <c r="S37">
-        <v>0.01017308502257984</v>
+        <v>0.001432008264533203</v>
       </c>
       <c r="T37">
-        <v>0.01037167436193592</v>
+        <v>0.001481805524116371</v>
       </c>
     </row>
   </sheetData>
